--- a/DHM.xlsx
+++ b/DHM.xlsx
@@ -25,13 +25,13 @@
     <t>due_date</t>
   </si>
   <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
   </si>
 </sst>
 </file>
